--- a/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3001,13 +3001,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7303</v>
+        <v>7306</v>
       </c>
       <c r="D51" t="n">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E51" t="n">
-        <v>32823377</v>
+        <v>32827877</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -7336,13 +7336,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>30532</v>
+        <v>30535</v>
       </c>
       <c r="D136" t="n">
-        <v>6640</v>
+        <v>6641</v>
       </c>
       <c r="E136" t="n">
-        <v>53099204</v>
+        <v>53103920</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -17944,13 +17944,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>28869</v>
+        <v>28870</v>
       </c>
       <c r="D344" t="n">
         <v>5352</v>
       </c>
       <c r="E344" t="n">
-        <v>158938232</v>
+        <v>158991044</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73749</v>
+        <v>73751</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>386489016</v>
+        <v>386646478</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74984</v>
+        <v>74989</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>434931632</v>
+        <v>435084940</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416641</v>
+        <v>416654</v>
       </c>
       <c r="D477" t="n">
         <v>70498</v>
       </c>
       <c r="E477" t="n">
-        <v>724796013</v>
+        <v>724839211</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291917</v>
+        <v>291940</v>
       </c>
       <c r="D484" t="n">
         <v>42564</v>
       </c>
       <c r="E484" t="n">
-        <v>1768100752</v>
+        <v>1768526023</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230547</v>
+        <v>230557</v>
       </c>
       <c r="D487" t="n">
         <v>33847</v>
       </c>
       <c r="E487" t="n">
-        <v>1816582631</v>
+        <v>1816992371</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62171</v>
+        <v>62173</v>
       </c>
       <c r="D509" t="n">
         <v>11277</v>
       </c>
       <c r="E509" t="n">
-        <v>298721711</v>
+        <v>298815941</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25076</v>
+        <v>25079</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92439338</v>
+        <v>92448942</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18454</v>
+        <v>18455</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72765909</v>
+        <v>72768683</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12401</v>
+        <v>12402</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40224583</v>
+        <v>40299139</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -37018,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D718" t="n">
         <v>236</v>
       </c>
       <c r="E718" t="n">
-        <v>5186675</v>
+        <v>5191274</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -46708,13 +46708,13 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>198893</v>
+        <v>198894</v>
       </c>
       <c r="D908" t="n">
         <v>40345</v>
       </c>
       <c r="E908" t="n">
-        <v>322739607</v>
+        <v>322749607</v>
       </c>
       <c r="F908" t="inlineStr">
         <is>
